--- a/outputs/thatcher_out_sheet_clip.xlsx
+++ b/outputs/thatcher_out_sheet_clip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynaho\PycharmProjects\galit_project\psychology_project\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8117C10-D9DF-4422-BDF5-E01856622A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C180D1-C66C-4B35-9F0B-D41A6D5EC689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:G26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
